--- a/output/test.xlsx
+++ b/output/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -523,22 +523,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>lymph_node_1</t>
+          <t>cyst_1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>117.6495262938464</v>
+        <v>-101.8042307238764</v>
       </c>
       <c r="K2" t="n">
-        <v>55.89937782448652</v>
+        <v>6.412389675191491</v>
       </c>
       <c r="L2" t="n">
-        <v>43.6142076253891</v>
+        <v>-42.77811574935923</v>
       </c>
     </row>
     <row r="3">
@@ -551,16 +551,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>lymph_node_2</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>123.2712954137517</v>
+        <v>-124.5687407597586</v>
       </c>
       <c r="K3" t="n">
-        <v>61.52114653322582</v>
+        <v>49.50915934432774</v>
       </c>
       <c r="L3" t="n">
-        <v>43.614207625389</v>
+        <v>-31.97811603546143</v>
       </c>
     </row>
     <row r="4">
@@ -597,40 +597,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>lymph_node_1</t>
+          <t>cyst_2</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>115.0142102821917</v>
+        <v>-96.62044003316993</v>
       </c>
       <c r="K4" t="n">
-        <v>34.33511401030145</v>
+        <v>4.892357205954937</v>
       </c>
       <c r="L4" t="n">
-        <v>9.153470993041992</v>
+        <v>-62.57811522483826</v>
       </c>
     </row>
     <row r="5">
@@ -643,16 +643,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -661,22 +661,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>lymph_node_2</t>
+          <t>cyst_1</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>118.804185980783</v>
+        <v>-130.129117153762</v>
       </c>
       <c r="K5" t="n">
-        <v>45.23129334738147</v>
+        <v>-10.66665252708495</v>
       </c>
       <c r="L5" t="n">
-        <v>9.153470993041992</v>
+        <v>-14.62400496006022</v>
       </c>
     </row>
     <row r="6">
@@ -689,34 +689,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>82</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F6" t="n">
+        <v>64</v>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>other_1</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>96.86383948669157</v>
+        <v>-140.5278560987633</v>
       </c>
       <c r="K6" t="n">
-        <v>-13.4946702550732</v>
+        <v>23.81992884053034</v>
       </c>
       <c r="L6" t="n">
-        <v>18.48563861846924</v>
+        <v>-1.124005317687988</v>
       </c>
     </row>
     <row r="7">
@@ -729,11 +735,17 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>supine</t>
@@ -741,22 +753,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>other_1</t>
+          <t>cyst_2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>122.0419356486578</v>
+        <v>-112.5418448954025</v>
       </c>
       <c r="K7" t="n">
-        <v>-23.68432595767862</v>
+        <v>-28.48740435205087</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.00153112411499</v>
+        <v>-38.92400431632996</v>
       </c>
     </row>
     <row r="8">
@@ -769,11 +781,17 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>84</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F8" t="n">
+        <v>53</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>prone</t>
@@ -790,13 +808,13 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-92.61684773579768</v>
+        <v>-115.8845872872374</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.802787984352761</v>
+        <v>29.14726369516066</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.873683452606201</v>
+        <v>-100.8917583227158</v>
       </c>
     </row>
     <row r="9">
@@ -809,19 +827,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F9" t="n">
+        <v>53</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cyst_2</t>
+          <t>cyst_1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -830,13 +854,13 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-86.21725522465493</v>
+        <v>-110.781810008168</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.062500056316679</v>
+        <v>2.80641556414713</v>
       </c>
       <c r="L9" t="n">
-        <v>2.226316332817078</v>
+        <v>-52.00945556163793</v>
       </c>
     </row>
     <row r="10">
@@ -849,11 +873,17 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>84</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>prone</t>
@@ -861,22 +891,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cyst_3</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-83.27056517384358</v>
+        <v>117.6495262938464</v>
       </c>
       <c r="K10" t="n">
-        <v>3.93581203862513</v>
+        <v>55.89937782448652</v>
       </c>
       <c r="L10" t="n">
-        <v>1.326316356658936</v>
+        <v>43.6142076253891</v>
       </c>
     </row>
     <row r="11">
@@ -889,11 +919,17 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>84</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60</v>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>prone</t>
@@ -901,22 +937,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cyst_4</t>
+          <t>lymph_node_2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-77.37098361993327</v>
+        <v>123.2712954137517</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.450064806818204</v>
+        <v>61.52114653322582</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.47368335723877</v>
+        <v>43.614207625389</v>
       </c>
     </row>
     <row r="12">
@@ -929,34 +965,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>84</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60</v>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>other_1</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-68.26561070021967</v>
+        <v>115.0142102821917</v>
       </c>
       <c r="K12" t="n">
-        <v>15.30541108891867</v>
+        <v>34.33511401030145</v>
       </c>
       <c r="L12" t="n">
-        <v>-9.47368335723877</v>
+        <v>9.153470993041992</v>
       </c>
     </row>
     <row r="13">
@@ -969,34 +1011,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>84</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cyst_5</t>
+          <t>lymph_node_2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-102.0015195770341</v>
+        <v>118.804185980783</v>
       </c>
       <c r="K13" t="n">
-        <v>16.58724398728532</v>
+        <v>45.23129334738147</v>
       </c>
       <c r="L13" t="n">
-        <v>-30.17368280887604</v>
+        <v>9.153470993041992</v>
       </c>
     </row>
     <row r="14">
@@ -1009,7 +1057,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -1021,7 +1069,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>other_2</t>
+          <t>other_1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1030,13 +1078,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>84.9954500273368</v>
+        <v>96.86383948669157</v>
       </c>
       <c r="K14" t="n">
-        <v>4.418577447685436</v>
+        <v>-13.4946702550732</v>
       </c>
       <c r="L14" t="n">
-        <v>-35.57368266582489</v>
+        <v>18.48563861846924</v>
       </c>
     </row>
     <row r="15">
@@ -1049,34 +1097,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>lymph_node_1</t>
+          <t>other_1</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>other</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100.8607172005143</v>
+        <v>122.0419356486578</v>
       </c>
       <c r="K15" t="n">
-        <v>44.46990804515707</v>
+        <v>-23.68432595767862</v>
       </c>
       <c r="L15" t="n">
-        <v>-19.37368309497833</v>
+        <v>-6.00153112411499</v>
       </c>
     </row>
     <row r="16">
@@ -1096,7 +1144,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1110,13 +1158,13 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-117.2533719812106</v>
+        <v>-92.61684773579768</v>
       </c>
       <c r="K16" t="n">
-        <v>-21.26325217055975</v>
+        <v>-2.802787984352761</v>
       </c>
       <c r="L16" t="n">
-        <v>22.2503821849823</v>
+        <v>-5.873683452606201</v>
       </c>
     </row>
     <row r="17">
@@ -1136,7 +1184,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,13 +1198,13 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-104.9574392905022</v>
+        <v>-86.21725522465493</v>
       </c>
       <c r="K17" t="n">
-        <v>-29.91617761296061</v>
+        <v>-4.062500056316679</v>
       </c>
       <c r="L17" t="n">
-        <v>29.45038199424754</v>
+        <v>2.226316332817078</v>
       </c>
     </row>
     <row r="18">
@@ -1176,7 +1224,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1190,13 +1238,13 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-97.59455432048637</v>
+        <v>-83.27056517384358</v>
       </c>
       <c r="K18" t="n">
-        <v>-31.38875449925894</v>
+        <v>3.93581203862513</v>
       </c>
       <c r="L18" t="n">
-        <v>29.45038199424744</v>
+        <v>1.326316356658936</v>
       </c>
     </row>
     <row r="19">
@@ -1216,7 +1264,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1230,13 +1278,13 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-91.45056182452089</v>
+        <v>-77.37098361993327</v>
       </c>
       <c r="K19" t="n">
-        <v>-38.13315830980329</v>
+        <v>-2.450064806818204</v>
       </c>
       <c r="L19" t="n">
-        <v>15.05038237571706</v>
+        <v>-9.47368335723877</v>
       </c>
     </row>
     <row r="20">
@@ -1256,7 +1304,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1270,13 +1318,13 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-66.42774215247601</v>
+        <v>-68.26561070021967</v>
       </c>
       <c r="K20" t="n">
-        <v>-39.77528979818919</v>
+        <v>15.30541108891867</v>
       </c>
       <c r="L20" t="n">
-        <v>13.25038242340098</v>
+        <v>-9.47368335723877</v>
       </c>
     </row>
     <row r="21">
@@ -1296,7 +1344,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1310,13 +1358,13 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-129.5493459724195</v>
+        <v>-102.0015195770341</v>
       </c>
       <c r="K21" t="n">
-        <v>4.870204498765389</v>
+        <v>16.58724398728532</v>
       </c>
       <c r="L21" t="n">
-        <v>-7.449617028236389</v>
+        <v>-30.17368280887604</v>
       </c>
     </row>
     <row r="22">
@@ -1336,7 +1384,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1350,13 +1398,13 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>123.705613139397</v>
+        <v>84.9954500273368</v>
       </c>
       <c r="K22" t="n">
-        <v>-8.447780940023932</v>
+        <v>4.418577447685436</v>
       </c>
       <c r="L22" t="n">
-        <v>-16.44961678981781</v>
+        <v>-35.57368266582489</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1424,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1390,128 +1438,110 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>136.9873250186243</v>
+        <v>100.8607172005143</v>
       </c>
       <c r="K23" t="n">
-        <v>39.21639400059917</v>
+        <v>44.46990804515707</v>
       </c>
       <c r="L23" t="n">
-        <v>12.35038244724274</v>
+        <v>-19.37368309497833</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>holly</t>
+          <t>anthony</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>81</v>
-      </c>
-      <c r="D24" t="n">
-        <v>43</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F24" t="n">
-        <v>60</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>lymph_node_1</t>
+          <t>cyst_1</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>117.6495262938464</v>
+        <v>-117.2533719812106</v>
       </c>
       <c r="K24" t="n">
-        <v>55.89937782448652</v>
+        <v>-21.26325217055975</v>
       </c>
       <c r="L24" t="n">
-        <v>43.6142076253891</v>
+        <v>22.2503821849823</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>holly</t>
+          <t>anthony</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>81</v>
-      </c>
-      <c r="D25" t="n">
-        <v>43</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F25" t="n">
-        <v>60</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>lymph_node_2</t>
+          <t>cyst_2</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>123.2712954137517</v>
+        <v>-104.9574392905022</v>
       </c>
       <c r="K25" t="n">
-        <v>61.52114653322582</v>
+        <v>-29.91617761296061</v>
       </c>
       <c r="L25" t="n">
-        <v>43.614207625389</v>
+        <v>29.45038199424754</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>holly</t>
+          <t>anthony</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>81</v>
-      </c>
-      <c r="D26" t="n">
-        <v>43</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F26" t="n">
-        <v>60</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>supine</t>
@@ -1519,45 +1549,39 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>lymph_node_1</t>
+          <t>cyst_3</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>116.6449390529162</v>
+        <v>-97.59455432048637</v>
       </c>
       <c r="K26" t="n">
-        <v>33.91023671291441</v>
+        <v>-31.38875449925894</v>
       </c>
       <c r="L26" t="n">
-        <v>9.153470397260477</v>
+        <v>29.45038199424744</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>holly</t>
+          <t>anthony</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>81</v>
-      </c>
-      <c r="D27" t="n">
-        <v>43</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F27" t="n">
-        <v>60</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>supine</t>
@@ -1565,42 +1589,42 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>lymph_node_2</t>
+          <t>cyst_4</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>117.8738428055839</v>
+        <v>-91.45056182452089</v>
       </c>
       <c r="K27" t="n">
-        <v>46.60890882387221</v>
+        <v>-38.13315830980329</v>
       </c>
       <c r="L27" t="n">
-        <v>9.153470397260534</v>
+        <v>15.05038237571706</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>holly</t>
+          <t>anthony</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1614,26 +1638,26 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>96.86383948669157</v>
+        <v>-66.42774215247601</v>
       </c>
       <c r="K28" t="n">
-        <v>-13.4946702550732</v>
+        <v>-39.77528979818919</v>
       </c>
       <c r="L28" t="n">
-        <v>18.48563861846924</v>
+        <v>13.25038242340098</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>holly</t>
+          <t>anthony</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1645,31 +1669,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>other_1</t>
+          <t>cyst_5</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>122.8127150074865</v>
+        <v>-129.5493459724195</v>
       </c>
       <c r="K29" t="n">
-        <v>-23.77138237108457</v>
+        <v>4.870204498765389</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.001528825624007</v>
+        <v>-7.449617028236389</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>holly</t>
+          <t>anthony</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1680,36 +1704,36 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>cyst_1</t>
+          <t>other_2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>other</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-92.61684773579768</v>
+        <v>123.705613139397</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.802787984352761</v>
+        <v>-8.447780940023932</v>
       </c>
       <c r="L30" t="n">
-        <v>-5.873683452606201</v>
+        <v>-16.44961678981781</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>holly</t>
+          <t>anthony</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1720,27 +1744,27 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>cyst_2</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-86.21725522465493</v>
+        <v>136.9873250186243</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.062500056316679</v>
+        <v>39.21639400059917</v>
       </c>
       <c r="L31" t="n">
-        <v>2.226316332817078</v>
+        <v>12.35038244724274</v>
       </c>
     </row>
     <row r="32">
@@ -1753,11 +1777,17 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>84</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>29</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F32" t="n">
+        <v>64</v>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>prone</t>
@@ -1765,7 +1795,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cyst_3</t>
+          <t>cyst_1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1774,13 +1804,13 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>-83.27056517384358</v>
+        <v>-101.8042307238764</v>
       </c>
       <c r="K32" t="n">
-        <v>3.93581203862513</v>
+        <v>6.412389675191491</v>
       </c>
       <c r="L32" t="n">
-        <v>1.326316356658936</v>
+        <v>-42.77811574935923</v>
       </c>
     </row>
     <row r="33">
@@ -1793,11 +1823,17 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>84</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>29</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F33" t="n">
+        <v>64</v>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>prone</t>
@@ -1805,22 +1841,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cyst_4</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-77.37098361993327</v>
+        <v>-124.5687407597586</v>
       </c>
       <c r="K33" t="n">
-        <v>-2.450064806818204</v>
+        <v>49.50915934432774</v>
       </c>
       <c r="L33" t="n">
-        <v>-9.47368335723877</v>
+        <v>-31.97811603546143</v>
       </c>
     </row>
     <row r="34">
@@ -1833,11 +1869,17 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>84</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D34" t="n">
+        <v>29</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F34" t="n">
+        <v>64</v>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>prone</t>
@@ -1845,22 +1887,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>other_1</t>
+          <t>cyst_2</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-68.26561070021967</v>
+        <v>-96.62044003316993</v>
       </c>
       <c r="K34" t="n">
-        <v>15.30541108891867</v>
+        <v>4.892357205954937</v>
       </c>
       <c r="L34" t="n">
-        <v>-9.47368335723877</v>
+        <v>-62.57811522483826</v>
       </c>
     </row>
     <row r="35">
@@ -1873,19 +1915,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>84</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>29</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F35" t="n">
+        <v>64</v>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cyst_5</t>
+          <t>cyst_1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1894,13 +1942,13 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-102.0015195770341</v>
+        <v>-129.9802331877676</v>
       </c>
       <c r="K35" t="n">
-        <v>16.58724398728532</v>
+        <v>-10.72843140162669</v>
       </c>
       <c r="L35" t="n">
-        <v>-30.17368280887604</v>
+        <v>-13.7240014076275</v>
       </c>
     </row>
     <row r="36">
@@ -1913,34 +1961,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>84</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D36" t="n">
+        <v>29</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F36" t="n">
+        <v>64</v>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>other_2</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>84.9954500273368</v>
+        <v>-140.1927563530753</v>
       </c>
       <c r="K36" t="n">
-        <v>4.418577447685436</v>
+        <v>22.38070641092537</v>
       </c>
       <c r="L36" t="n">
-        <v>-35.57368266582489</v>
+        <v>-2.024001598363384</v>
       </c>
     </row>
     <row r="37">
@@ -1953,34 +2007,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>84</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="D37" t="n">
+        <v>29</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F37" t="n">
+        <v>64</v>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>prone</t>
+          <t>supine</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>lymph_node_1</t>
+          <t>cyst_2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>lymph</t>
+          <t>cyst</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>100.8607172005143</v>
+        <v>-111.2492461644164</v>
       </c>
       <c r="K37" t="n">
-        <v>44.46990804515707</v>
+        <v>-27.42469731585854</v>
       </c>
       <c r="L37" t="n">
-        <v>-19.37368309497833</v>
+        <v>-38.02400101148373</v>
       </c>
     </row>
     <row r="38">
@@ -1993,14 +2053,20 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>84</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="D38" t="n">
+        <v>29</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F38" t="n">
+        <v>53</v>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2014,13 +2080,13 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-117.2308102406069</v>
+        <v>-115.8845872872374</v>
       </c>
       <c r="K38" t="n">
-        <v>-20.74145274177457</v>
+        <v>29.14726369516066</v>
       </c>
       <c r="L38" t="n">
-        <v>23.15037874885849</v>
+        <v>-100.8917583227158</v>
       </c>
     </row>
     <row r="39">
@@ -2033,11 +2099,17 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>84</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="D39" t="n">
+        <v>29</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F39" t="n">
+        <v>53</v>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>supine</t>
@@ -2045,7 +2117,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cyst_2</t>
+          <t>cyst_1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2054,13 +2126,13 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-104.3317274823544</v>
+        <v>-110.6429549610368</v>
       </c>
       <c r="K39" t="n">
-        <v>-29.35123760529819</v>
+        <v>1.713451553437267</v>
       </c>
       <c r="L39" t="n">
-        <v>29.45037858197145</v>
+        <v>-52.009456366951</v>
       </c>
     </row>
     <row r="40">
@@ -2073,34 +2145,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>84</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="D40" t="n">
+        <v>43</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F40" t="n">
+        <v>60</v>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cyst_3</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-97.08371245973018</v>
+        <v>117.6495262938464</v>
       </c>
       <c r="K40" t="n">
-        <v>-30.65826401735129</v>
+        <v>55.89937782448652</v>
       </c>
       <c r="L40" t="n">
-        <v>30.3503785581305</v>
+        <v>43.6142076253891</v>
       </c>
     </row>
     <row r="41">
@@ -2113,34 +2191,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>84</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="D41" t="n">
+        <v>43</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F41" t="n">
+        <v>60</v>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cyst_4</t>
+          <t>lymph_node_2</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-91.46109620372565</v>
+        <v>123.2712954137517</v>
       </c>
       <c r="K41" t="n">
-        <v>-38.74200941728935</v>
+        <v>61.52114653322582</v>
       </c>
       <c r="L41" t="n">
-        <v>14.15037898726854</v>
+        <v>43.614207625389</v>
       </c>
     </row>
     <row r="42">
@@ -2153,11 +2237,17 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>84</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="D42" t="n">
+        <v>43</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F42" t="n">
+        <v>60</v>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>supine</t>
@@ -2165,22 +2255,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>other_1</t>
+          <t>lymph_node_1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>-65.07281917993518</v>
+        <v>116.6449390529162</v>
       </c>
       <c r="K42" t="n">
-        <v>-39.09860775547136</v>
+        <v>33.91023671291441</v>
       </c>
       <c r="L42" t="n">
-        <v>14.15037898726854</v>
+        <v>9.153470397260477</v>
       </c>
     </row>
     <row r="43">
@@ -2193,11 +2283,17 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>84</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="D43" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F43" t="n">
+        <v>60</v>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>supine</t>
@@ -2205,22 +2301,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cyst_5</t>
+          <t>lymph_node_2</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>cyst</t>
+          <t>lymph</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>-129.1478861763653</v>
+        <v>117.8738428055839</v>
       </c>
       <c r="K43" t="n">
-        <v>4.890960259141593</v>
+        <v>46.60890882387221</v>
       </c>
       <c r="L43" t="n">
-        <v>-6.54962046438834</v>
+        <v>9.153470397260534</v>
       </c>
     </row>
     <row r="44">
@@ -2233,19 +2329,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>supine</t>
+          <t>prone</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>other_2</t>
+          <t>other_1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2254,13 +2350,13 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>123.6148690209657</v>
+        <v>96.86383948669157</v>
       </c>
       <c r="K44" t="n">
-        <v>-10.82368159277391</v>
+        <v>-13.4946702550732</v>
       </c>
       <c r="L44" t="n">
-        <v>-17.34962017829623</v>
+        <v>18.48563861846924</v>
       </c>
     </row>
     <row r="45">
@@ -2273,7 +2369,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
@@ -2285,21 +2381,661 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>other_1</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>122.8127150074865</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-23.77138237108457</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-6.001528825624007</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>84</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>cyst_1</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>-92.61684773579768</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-2.802787984352761</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-5.873683452606201</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>84</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>cyst_2</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>-86.21725522465493</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-4.062500056316679</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.226316332817078</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>84</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>cyst_3</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>-83.27056517384358</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.93581203862513</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.326316356658936</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>84</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>cyst_4</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>-77.37098361993327</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-2.450064806818204</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-9.47368335723877</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>84</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>other_1</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>-68.26561070021967</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15.30541108891867</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-9.47368335723877</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>84</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>cyst_5</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>-102.0015195770341</v>
+      </c>
+      <c r="K51" t="n">
+        <v>16.58724398728532</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-30.17368280887604</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>84</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>other_2</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>84.9954500273368</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4.418577447685436</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-35.57368266582489</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>84</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>lymph_node_1</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>lymph</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="J53" t="n">
+        <v>100.8607172005143</v>
+      </c>
+      <c r="K53" t="n">
+        <v>44.46990804515707</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-19.37368309497833</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>84</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>supine</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>cyst_1</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>-117.2308102406069</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-20.74145274177457</v>
+      </c>
+      <c r="L54" t="n">
+        <v>23.15037874885849</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>84</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>supine</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>cyst_2</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>-104.3317274823544</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-29.35123760529819</v>
+      </c>
+      <c r="L55" t="n">
+        <v>29.45037858197145</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>84</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>supine</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>cyst_3</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>-97.08371245973018</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-30.65826401735129</v>
+      </c>
+      <c r="L56" t="n">
+        <v>30.3503785581305</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>84</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supine</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>cyst_4</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>-91.46109620372565</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-38.74200941728935</v>
+      </c>
+      <c r="L57" t="n">
+        <v>14.15037898726854</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>84</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supine</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>other_1</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>-65.07281917993518</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-39.09860775547136</v>
+      </c>
+      <c r="L58" t="n">
+        <v>14.15037898726854</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>84</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>supine</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>cyst_5</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>cyst</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>-129.1478861763653</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.890960259141593</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-6.54962046438834</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>84</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>supine</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>other_2</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>123.6148690209657</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-10.82368159277391</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-17.34962017829623</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>holly</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>84</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>supine</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>lymph_node_1</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>lymph</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
         <v>135.6263773610775</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K61" t="n">
         <v>41.14654885838488</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L61" t="n">
         <v>13.2503790111096</v>
       </c>
     </row>
